--- a/Coaches/coaches.xlsx
+++ b/Coaches/coaches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/predictions/Coaches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/Super_League_Predictions/Coaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{8D46E0C6-7BF7-4A1C-BE8E-DAB34C38A6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166DD222-E0A7-46B5-9955-95330C3F91E1}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{8D46E0C6-7BF7-4A1C-BE8E-DAB34C38A6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C62FB68A-1D05-4C2C-88D4-7F0C98EEE1A6}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F6C156A-ECCE-4B47-BD95-E78A470903FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F6C156A-ECCE-4B47-BD95-E78A470903FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="149">
   <si>
     <t>Trainer / Akt. Verein</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>Matteo Vanetta</t>
+  </si>
+  <si>
+    <t>Adi Noventa</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>FC Winterthur</t>
+  </si>
+  <si>
+    <t>Hans Kodric</t>
   </si>
 </sst>
 </file>
@@ -825,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A029A046-9A56-4B4B-8586-AF8C1A0E269A}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4845,6 +4857,58 @@
       </c>
       <c r="H158" s="1">
         <v>0.91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>145</v>
+      </c>
+      <c r="B159" t="s">
+        <v>146</v>
+      </c>
+      <c r="C159" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159">
+        <v>39</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159">
+        <v>17</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" t="s">
+        <v>147</v>
+      </c>
+      <c r="D160">
+        <v>21</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>23</v>
+      </c>
+      <c r="G160">
+        <v>12</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.56999999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Coaches/coaches.xlsx
+++ b/Coaches/coaches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/Super_League_Predictions/Coaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{8D46E0C6-7BF7-4A1C-BE8E-DAB34C38A6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C62FB68A-1D05-4C2C-88D4-7F0C98EEE1A6}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="8_{8D46E0C6-7BF7-4A1C-BE8E-DAB34C38A6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADE5B39C-DD7B-48EC-AD6A-1E77F62E9656}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F6C156A-ECCE-4B47-BD95-E78A470903FE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$158</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="156">
   <si>
     <t>Trainer / Akt. Verein</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Jean-Michel Aeby</t>
   </si>
   <si>
-    <t>Yverdon-Sport FC</t>
-  </si>
-  <si>
     <t>André Egli</t>
   </si>
   <si>
@@ -485,6 +482,30 @@
   </si>
   <si>
     <t>Hans Kodric</t>
+  </si>
+  <si>
+    <t>Alex Frei</t>
+  </si>
+  <si>
+    <t>Franco Foda</t>
+  </si>
+  <si>
+    <t>Bruno Berner</t>
+  </si>
+  <si>
+    <t>Yverdon Sport FC</t>
+  </si>
+  <si>
+    <t>Andrea Binotto</t>
+  </si>
+  <si>
+    <t>FC Stade-Lausanne-Ouchy</t>
+  </si>
+  <si>
+    <t>Stefano Maccoppi</t>
+  </si>
+  <si>
+    <t>Meho Kodro</t>
   </si>
 </sst>
 </file>
@@ -837,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A029A046-9A56-4B4B-8586-AF8C1A0E269A}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +951,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -956,7 +977,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -982,7 +1003,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1005,7 +1026,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1418,7 +1439,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1470,7 +1491,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1597,7 +1618,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1816,119 +1837,116 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="H39" s="1">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H40" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
       </c>
       <c r="G41">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H41" s="1">
-        <v>1.28</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
       <c r="D42">
-        <v>66</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G42">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
       <c r="G43">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H43" s="1">
-        <v>0.91</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -1937,24 +1955,21 @@
         <v>64</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H44" s="1">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -1963,180 +1978,180 @@
         <v>64</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
       </c>
       <c r="G45">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
       </c>
       <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46">
         <v>30</v>
       </c>
-      <c r="D46">
-        <v>60</v>
-      </c>
-      <c r="G46">
-        <v>86</v>
-      </c>
       <c r="H46" s="1">
-        <v>1.43</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
       <c r="G47">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H47" s="1">
-        <v>1.94</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
       </c>
       <c r="D48">
-        <v>17</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G48">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H48" s="1">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>23</v>
       </c>
       <c r="G49">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H49" s="1">
-        <v>1.18</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>23</v>
       </c>
       <c r="G50">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H50" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>23</v>
       </c>
       <c r="G51">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H51" s="1">
-        <v>1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
       </c>
       <c r="D52">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2145,110 +2160,110 @@
         <v>23</v>
       </c>
       <c r="G52">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H52" s="1">
-        <v>0.97</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
       </c>
       <c r="G53">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="H53" s="1">
-        <v>1.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>23</v>
       </c>
       <c r="G54">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54" s="1">
-        <v>1.89</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
       </c>
       <c r="D55">
-        <v>93</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G55">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="H55" s="1">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
       </c>
       <c r="D56">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>23</v>
       </c>
       <c r="G56">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="H56" s="1">
-        <v>1.43</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -2257,50 +2272,50 @@
         <v>31</v>
       </c>
       <c r="D57">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>23</v>
       </c>
       <c r="G57">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="H57" s="1">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
       </c>
       <c r="D58">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>23</v>
       </c>
       <c r="G58">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="H58" s="1">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -2309,59 +2324,59 @@
         <v>31</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>23</v>
       </c>
       <c r="G59">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H59" s="1">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
       </c>
       <c r="D60">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>23</v>
       </c>
       <c r="G60">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H60" s="1">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2370,15 +2385,15 @@
         <v>23</v>
       </c>
       <c r="G61">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -2387,33 +2402,33 @@
         <v>31</v>
       </c>
       <c r="D62">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>23</v>
       </c>
       <c r="G62">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H62" s="1">
-        <v>0.99</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2422,24 +2437,24 @@
         <v>23</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H63" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -2448,24 +2463,24 @@
         <v>23</v>
       </c>
       <c r="G64">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H64" s="1">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2474,156 +2489,156 @@
         <v>23</v>
       </c>
       <c r="G65">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
       </c>
       <c r="G66">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H66" s="1">
-        <v>1.27</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
       </c>
       <c r="G67">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H67" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H68" s="1">
-        <v>0.96</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
       </c>
       <c r="D69">
-        <v>12</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G69">
         <v>25</v>
       </c>
       <c r="H69" s="1">
-        <v>2.08</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
       </c>
       <c r="D70">
-        <v>24</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
         <v>23</v>
       </c>
       <c r="G70">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H70" s="1">
-        <v>1.75</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
       </c>
       <c r="D71">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>23</v>
       </c>
       <c r="G71">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H71" s="1">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2632,41 +2647,41 @@
         <v>23</v>
       </c>
       <c r="G72">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H72" s="1">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>23</v>
       </c>
       <c r="G73">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="H73" s="1">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
@@ -2675,7 +2690,7 @@
         <v>22</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2684,41 +2699,41 @@
         <v>23</v>
       </c>
       <c r="G74">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H74" s="1">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
       </c>
       <c r="D75">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>23</v>
       </c>
       <c r="G75">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="H75" s="1">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
@@ -2727,50 +2742,50 @@
         <v>22</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>23</v>
       </c>
       <c r="G76">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H76" s="1">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
       </c>
       <c r="D77">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
         <v>23</v>
       </c>
       <c r="G77">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="H77" s="1">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
@@ -2779,76 +2794,76 @@
         <v>22</v>
       </c>
       <c r="D78">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>23</v>
       </c>
       <c r="G78">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H78" s="1">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>23</v>
       </c>
       <c r="G79">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="H79" s="1">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>23</v>
       </c>
       <c r="G80">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H80" s="1">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -2857,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="D81">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2866,24 +2881,24 @@
         <v>23</v>
       </c>
       <c r="G81">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H81" s="1">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2892,15 +2907,15 @@
         <v>23</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H82" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -2909,36 +2924,36 @@
         <v>22</v>
       </c>
       <c r="D83">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>23</v>
       </c>
       <c r="G83">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H83" s="1">
-        <v>1</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>23</v>
@@ -2947,73 +2962,73 @@
         <v>10</v>
       </c>
       <c r="H84" s="1">
-        <v>0.91</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>23</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H85" s="1">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
       </c>
       <c r="D86">
+        <v>11</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86">
         <v>10</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86">
-        <v>8</v>
-      </c>
       <c r="H86" s="1">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3022,50 +3037,50 @@
         <v>23</v>
       </c>
       <c r="G87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H87" s="1">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
         <v>22</v>
       </c>
       <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88">
         <v>8</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88">
-        <v>4</v>
-      </c>
       <c r="H88" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3074,174 +3089,174 @@
         <v>23</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H89" s="1">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D90">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>23</v>
       </c>
       <c r="G90">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="H90" s="1">
-        <v>1.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D91">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>23</v>
       </c>
       <c r="G91">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H91" s="1">
-        <v>1.44</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
         <v>43</v>
       </c>
       <c r="D92">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>23</v>
       </c>
       <c r="G92">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="H92" s="1">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>43</v>
       </c>
       <c r="D93">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>23</v>
       </c>
       <c r="G93">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="H93" s="1">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
       </c>
       <c r="D94">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
         <v>23</v>
       </c>
       <c r="G94">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="H94" s="1">
-        <v>1.0900000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
         <v>43</v>
       </c>
       <c r="D95">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>23</v>
       </c>
       <c r="G95">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H95" s="1">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
         <v>43</v>
@@ -3256,24 +3271,24 @@
         <v>23</v>
       </c>
       <c r="G96">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H96" s="1">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
         <v>43</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3282,93 +3297,93 @@
         <v>23</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H97" s="1">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
         <v>43</v>
       </c>
       <c r="D98">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>23</v>
       </c>
       <c r="G98">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H98" s="1">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>23</v>
       </c>
       <c r="G99">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H99" s="1">
-        <v>1.69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D100">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>23</v>
       </c>
       <c r="G100">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H100" s="1">
-        <v>1.63</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
@@ -3377,7 +3392,7 @@
         <v>48</v>
       </c>
       <c r="D101">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3386,15 +3401,15 @@
         <v>23</v>
       </c>
       <c r="G101">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="H101" s="1">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
@@ -3403,21 +3418,24 @@
         <v>48</v>
       </c>
       <c r="D102">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
       </c>
       <c r="G102">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H102" s="1">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -3426,50 +3444,47 @@
         <v>48</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
         <v>23</v>
       </c>
       <c r="G103">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H103" s="1">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
       </c>
       <c r="D104">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E104">
-        <v>4</v>
-      </c>
-      <c r="F104" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G104">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="H104" s="1">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
         <v>9</v>
@@ -3478,59 +3493,59 @@
         <v>48</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>23</v>
       </c>
       <c r="G105">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H105" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
         <v>48</v>
       </c>
       <c r="D106">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
         <v>23</v>
       </c>
       <c r="G106">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H106" s="1">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>48</v>
       </c>
       <c r="D107">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -3539,76 +3554,76 @@
         <v>23</v>
       </c>
       <c r="G107">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H107" s="1">
-        <v>0.86</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
         <v>48</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
         <v>23</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H108" s="1">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D109">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="s">
         <v>23</v>
       </c>
       <c r="G109">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H109" s="1">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3617,24 +3632,24 @@
         <v>23</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H110" s="1">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D111">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3646,99 +3661,99 @@
         <v>11</v>
       </c>
       <c r="H111" s="1">
-        <v>0.48</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D112">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
         <v>23</v>
       </c>
       <c r="G112">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="H112" s="1">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D113">
+        <v>23</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113">
         <v>11</v>
       </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113">
-        <v>15</v>
-      </c>
       <c r="H113" s="1">
-        <v>1.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114" t="s">
         <v>23</v>
       </c>
       <c r="G114">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H114" s="1">
-        <v>1.33</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C115" t="s">
         <v>72</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -3747,24 +3762,24 @@
         <v>23</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H115" s="1">
-        <v>0.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C116" t="s">
         <v>72</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -3773,67 +3788,67 @@
         <v>23</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H116" s="1">
-        <v>0.28999999999999998</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D117">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117">
         <v>4</v>
       </c>
-      <c r="F117">
-        <v>4</v>
-      </c>
-      <c r="G117">
-        <v>257</v>
-      </c>
       <c r="H117" s="1">
-        <v>1.78</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D118">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>3</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>23</v>
       </c>
       <c r="G118">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="H118" s="1">
-        <v>1.71</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
@@ -3842,24 +3857,24 @@
         <v>38</v>
       </c>
       <c r="D119">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="E119">
-        <v>3</v>
-      </c>
-      <c r="F119" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
       </c>
       <c r="G119">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="H119" s="1">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
@@ -3868,50 +3883,50 @@
         <v>38</v>
       </c>
       <c r="D120">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E120">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="H120" s="1">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
         <v>38</v>
       </c>
       <c r="D121">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F121" t="s">
         <v>23</v>
       </c>
       <c r="G121">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="H121" s="1">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
@@ -3920,85 +3935,85 @@
         <v>38</v>
       </c>
       <c r="D122">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F122" t="s">
         <v>23</v>
       </c>
       <c r="G122">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="H122" s="1">
-        <v>1</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
         <v>38</v>
       </c>
       <c r="D123">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
         <v>23</v>
       </c>
       <c r="G123">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H123" s="1">
-        <v>0.96</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>38</v>
       </c>
       <c r="D124">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
-      <c r="F124">
-        <v>1</v>
+      <c r="F124" t="s">
+        <v>23</v>
       </c>
       <c r="G124">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H124" s="1">
-        <v>2.11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C125" t="s">
         <v>38</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4007,38 +4022,41 @@
         <v>23</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H125" s="1">
-        <v>0.33</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s">
         <v>38</v>
       </c>
       <c r="D126">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
       <c r="G126">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H126" s="1">
-        <v>1.27</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
@@ -4047,177 +4065,174 @@
         <v>38</v>
       </c>
       <c r="D127">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>23</v>
       </c>
       <c r="G127">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="H127" s="1">
-        <v>1.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D128">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E128">
-        <v>2</v>
-      </c>
-      <c r="F128" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H128" s="1">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D129">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E129">
-        <v>4</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="H129" s="1">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
         <v>54</v>
       </c>
       <c r="D130">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E130">
-        <v>3</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>23</v>
       </c>
       <c r="G130">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H130" s="1">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>54</v>
       </c>
       <c r="D131">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="E131">
-        <v>2</v>
-      </c>
-      <c r="F131" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="H131" s="1">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
         <v>54</v>
       </c>
       <c r="D132">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E132">
         <v>3</v>
       </c>
-      <c r="F132" t="s">
-        <v>23</v>
+      <c r="F132">
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="H132" s="1">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C133" t="s">
         <v>54</v>
       </c>
       <c r="D133">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
         <v>23</v>
       </c>
       <c r="G133">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H133" s="1">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
@@ -4226,50 +4241,50 @@
         <v>54</v>
       </c>
       <c r="D134">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F134" t="s">
         <v>23</v>
       </c>
       <c r="G134">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H134" s="1">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
         <v>54</v>
       </c>
       <c r="D135">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F135" t="s">
         <v>23</v>
       </c>
       <c r="G135">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H135" s="1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
@@ -4278,59 +4293,59 @@
         <v>54</v>
       </c>
       <c r="D136">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
         <v>23</v>
       </c>
       <c r="G136">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H136" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C137" t="s">
         <v>54</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>23</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H137" s="1">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
         <v>54</v>
       </c>
       <c r="D138">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -4339,102 +4354,102 @@
         <v>23</v>
       </c>
       <c r="G138">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H138" s="1">
-        <v>0.79</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="F139" t="s">
-        <v>23</v>
+      <c r="F139">
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H139" s="1">
-        <v>1.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D140">
+        <v>28</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140">
         <v>22</v>
       </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140">
-        <v>33</v>
-      </c>
       <c r="H140" s="1">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
         <v>82</v>
       </c>
       <c r="D141">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" t="s">
         <v>23</v>
       </c>
       <c r="G141">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H141" s="1">
-        <v>1.17</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C142" t="s">
         <v>82</v>
       </c>
       <c r="D142">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -4443,50 +4458,50 @@
         <v>23</v>
       </c>
       <c r="G142">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H142" s="1">
-        <v>1.1299999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C143" t="s">
         <v>82</v>
       </c>
       <c r="D143">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="s">
         <v>23</v>
       </c>
       <c r="G143">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H143" s="1">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
         <v>82</v>
       </c>
       <c r="D144">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -4495,24 +4510,24 @@
         <v>23</v>
       </c>
       <c r="G144">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H144" s="1">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C145" t="s">
         <v>82</v>
       </c>
       <c r="D145">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4521,41 +4536,41 @@
         <v>23</v>
       </c>
       <c r="G145">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H145" s="1">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C146" t="s">
         <v>82</v>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
         <v>23</v>
       </c>
       <c r="G146">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H146" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
@@ -4564,24 +4579,24 @@
         <v>82</v>
       </c>
       <c r="D147">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
         <v>23</v>
       </c>
       <c r="G147">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H147" s="1">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B148" t="s">
         <v>9</v>
@@ -4590,24 +4605,24 @@
         <v>82</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" t="s">
         <v>23</v>
       </c>
       <c r="G148">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H148" s="1">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
         <v>9</v>
@@ -4616,24 +4631,24 @@
         <v>82</v>
       </c>
       <c r="D149">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F149" t="s">
         <v>23</v>
       </c>
       <c r="G149">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H149" s="1">
-        <v>1.19</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
@@ -4642,7 +4657,7 @@
         <v>82</v>
       </c>
       <c r="D150">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -4651,15 +4666,15 @@
         <v>23</v>
       </c>
       <c r="G150">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H150" s="1">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B151" t="s">
         <v>9</v>
@@ -4668,53 +4683,59 @@
         <v>82</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
         <v>23</v>
       </c>
       <c r="G151">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H151" s="1">
-        <v>0.68</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D152">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>23</v>
       </c>
       <c r="G152">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="H152" s="1">
-        <v>1.32</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -4723,15 +4744,15 @@
         <v>23</v>
       </c>
       <c r="G153">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H153" s="1">
-        <v>1.75</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
         <v>9</v>
@@ -4740,111 +4761,108 @@
         <v>41</v>
       </c>
       <c r="D154">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E154">
-        <v>2</v>
-      </c>
-      <c r="F154" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G154">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="H154" s="1">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C155" t="s">
         <v>41</v>
       </c>
       <c r="D155">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
         <v>23</v>
       </c>
       <c r="G155">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H155" s="1">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
         <v>41</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F156" t="s">
         <v>23</v>
       </c>
       <c r="G156">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H156" s="1">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
       </c>
       <c r="D157">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F157" t="s">
         <v>23</v>
       </c>
       <c r="G157">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H157" s="1">
-        <v>0.86</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D158">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4853,68 +4871,283 @@
         <v>23</v>
       </c>
       <c r="G158">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H158" s="1">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="D159">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
       </c>
       <c r="G159">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H159" s="1">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>151</v>
+      </c>
+      <c r="D160">
+        <v>34</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>23</v>
+      </c>
+      <c r="G160">
+        <v>31</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" t="s">
+        <v>146</v>
+      </c>
+      <c r="D161">
+        <v>39</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161">
+        <v>17</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162" t="s">
         <v>103</v>
       </c>
-      <c r="C160" t="s">
-        <v>147</v>
-      </c>
-      <c r="D160">
+      <c r="C162" t="s">
+        <v>146</v>
+      </c>
+      <c r="D162">
         <v>21</v>
       </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160">
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162">
         <v>12</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H162" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163">
+        <v>8</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>2</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>146</v>
+      </c>
+      <c r="D164">
+        <v>36</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>32</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>153</v>
+      </c>
+      <c r="D165">
+        <v>243</v>
+      </c>
+      <c r="E165">
+        <v>8</v>
+      </c>
+      <c r="G165">
+        <v>457</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" t="s">
+        <v>153</v>
+      </c>
+      <c r="D166">
+        <v>11</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <f>H166*D166</f>
+        <v>11</v>
+      </c>
+      <c r="H166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>153</v>
+      </c>
+      <c r="D167">
+        <v>76</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>108</v>
+      </c>
+      <c r="H167" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>46</v>
+      </c>
+      <c r="B168" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" t="s">
+        <v>151</v>
+      </c>
+      <c r="D168">
+        <v>38</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>56</v>
+      </c>
+      <c r="H168" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>151</v>
+      </c>
+      <c r="D169">
+        <v>25</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <f t="shared" ref="G168:G169" si="0">H169*D169</f>
+        <v>46</v>
+      </c>
+      <c r="H169" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H156" xr:uid="{C46BEA2A-933E-4CD4-8FC2-F9E1C88C062B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H158">
-    <sortCondition ref="C2:C158"/>
+  <autoFilter ref="A1:H158" xr:uid="{C46BEA2A-933E-4CD4-8FC2-F9E1C88C062B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H160">
+    <sortCondition ref="C2:C160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
